--- a/app/src/main/assets/questions/ml.xlsx
+++ b/app/src/main/assets/questions/ml.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="701">
   <si>
     <t xml:space="preserve">Malayalam</t>
   </si>
@@ -812,19 +812,22 @@
     <t xml:space="preserve">aചതുരശ്രം,സർക്കിള്‍,ത്രികോണം,ചതുരം,സമാന്തരചതുരശ്രം,ഉള്ളയറ്റവൃത്തം,ട്രാപ്പസോയിഡ്,സംഖ്യചതുരശ്രം,പഞ്ചഭുജം,ഹെക്സഗൺ,ഒക്‌ടഗൺ*</t>
   </si>
   <si>
-    <t xml:space="preserve">aവനം,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്*</t>
+    <t xml:space="preserve">aവടക്ക്,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്*</t>
   </si>
   <si>
     <t xml:space="preserve">direction</t>
   </si>
   <si>
+    <t xml:space="preserve">aവടക്ക്,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്*</t>
+  </si>
+  <si>
     <t xml:space="preserve">aവനം,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്*</t>
   </si>
   <si>
-    <t xml:space="preserve">aവനം,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്,വടക്കുകിഴക്ക്,തെക്കുകിഴക്ക്*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaവനം,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്,വടക്കുകിഴക്ക്,തെക്കുകിഴക്ക്*</t>
+    <t xml:space="preserve">aവടക്ക്,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്,വടക്കുകിഴക്ക്,തെക്കുകിഴക്ക്*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaവടക്ക്,ദക്ഷിണം,പടിഞ്ഞാറ്,കിഴക്ക്,വടക്കുപടിഞ്ഞാറ്,തെക്കുപടിഞ്ഞാറ്,വടക്കുകിഴക്ക്,തെക്കുകിഴക്ക്*</t>
   </si>
   <si>
     <t xml:space="preserve">addition</t>
@@ -2286,8 +2289,8 @@
   </sheetPr>
   <dimension ref="A1:F1033"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A524" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1037" activeCellId="0" sqref="B1037"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A485" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B504" activeCellId="0" sqref="B504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12340,7 +12343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>65</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>263</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D503" s="4" t="n">
         <v>2</v>
@@ -12368,7 +12371,7 @@
         <v>263</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D504" s="4" t="n">
         <v>3</v>
@@ -12388,7 +12391,7 @@
         <v>263</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D505" s="4" t="n">
         <v>3</v>
@@ -12408,7 +12411,7 @@
         <v>263</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D506" s="4" t="n">
         <v>3</v>
@@ -12428,7 +12431,7 @@
         <v>263</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D507" s="4" t="n">
         <v>3</v>
@@ -12448,7 +12451,7 @@
         <v>263</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D508" s="4" t="n">
         <v>3</v>
@@ -12468,7 +12471,7 @@
         <v>263</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D509" s="4" t="n">
         <v>3</v>
@@ -12488,7 +12491,7 @@
         <v>263</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D510" s="4" t="n">
         <v>3</v>
@@ -12508,7 +12511,7 @@
         <v>263</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D511" s="4" t="n">
         <v>3</v>
@@ -12528,7 +12531,7 @@
         <v>263</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D512" s="4" t="n">
         <v>3</v>
@@ -12548,7 +12551,7 @@
         <v>263</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D513" s="4" t="n">
         <v>3</v>
@@ -12568,7 +12571,7 @@
         <v>263</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D514" s="4" t="n">
         <v>4</v>
@@ -12588,7 +12591,7 @@
         <v>263</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D515" s="4" t="n">
         <v>4</v>
@@ -12608,7 +12611,7 @@
         <v>263</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D516" s="4" t="n">
         <v>4</v>
@@ -12628,7 +12631,7 @@
         <v>263</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D517" s="4" t="n">
         <v>4</v>
@@ -12648,7 +12651,7 @@
         <v>263</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D518" s="4" t="n">
         <v>4</v>
@@ -12668,7 +12671,7 @@
         <v>263</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D519" s="4" t="n">
         <v>4</v>
@@ -12688,7 +12691,7 @@
         <v>263</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D520" s="4" t="n">
         <v>4</v>
@@ -12708,7 +12711,7 @@
         <v>263</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D521" s="4" t="n">
         <v>4</v>
@@ -12728,7 +12731,7 @@
         <v>263</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D522" s="4" t="n">
         <v>4</v>
@@ -12748,7 +12751,7 @@
         <v>263</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D523" s="4" t="n">
         <v>4</v>
@@ -12768,7 +12771,7 @@
         <v>263</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D524" s="4" t="n">
         <v>5</v>
@@ -12788,7 +12791,7 @@
         <v>263</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D525" s="4" t="n">
         <v>5</v>
@@ -12808,7 +12811,7 @@
         <v>263</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D526" s="4" t="n">
         <v>5</v>
@@ -12828,7 +12831,7 @@
         <v>263</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D527" s="4" t="n">
         <v>5</v>
@@ -12848,7 +12851,7 @@
         <v>263</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D528" s="4" t="n">
         <v>5</v>
@@ -12868,7 +12871,7 @@
         <v>263</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D529" s="4" t="n">
         <v>5</v>
@@ -12888,7 +12891,7 @@
         <v>263</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D530" s="4" t="n">
         <v>5</v>
@@ -12908,7 +12911,7 @@
         <v>263</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D531" s="4" t="n">
         <v>5</v>
@@ -12928,7 +12931,7 @@
         <v>263</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D532" s="4" t="n">
         <v>5</v>
@@ -12948,7 +12951,7 @@
         <v>263</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D533" s="4" t="n">
         <v>5</v>
@@ -12965,7 +12968,7 @@
         <v>10</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C534" s="3" t="s">
         <v>11</v>
@@ -12982,10 +12985,10 @@
     </row>
     <row r="535" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B535" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="C535" s="3" t="s">
         <v>11</v>
@@ -13002,10 +13005,10 @@
     </row>
     <row r="536" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C536" s="3" t="s">
         <v>11</v>
@@ -13022,10 +13025,10 @@
     </row>
     <row r="537" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C537" s="3" t="s">
         <v>11</v>
@@ -13042,10 +13045,10 @@
     </row>
     <row r="538" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>11</v>
@@ -13062,10 +13065,10 @@
     </row>
     <row r="539" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C539" s="3" t="s">
         <v>11</v>
@@ -13082,10 +13085,10 @@
     </row>
     <row r="540" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C540" s="3" t="s">
         <v>11</v>
@@ -13102,10 +13105,10 @@
     </row>
     <row r="541" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C541" s="3" t="s">
         <v>11</v>
@@ -13122,10 +13125,10 @@
     </row>
     <row r="542" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C542" s="3" t="s">
         <v>11</v>
@@ -13142,10 +13145,10 @@
     </row>
     <row r="543" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>11</v>
@@ -13162,13 +13165,13 @@
     </row>
     <row r="544" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D544" s="4" t="n">
         <v>2</v>
@@ -13182,13 +13185,13 @@
     </row>
     <row r="545" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C545" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="D545" s="4" t="n">
         <v>2</v>
@@ -13202,13 +13205,13 @@
     </row>
     <row r="546" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D546" s="4" t="n">
         <v>2</v>
@@ -13222,13 +13225,13 @@
     </row>
     <row r="547" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D547" s="4" t="n">
         <v>2</v>
@@ -13242,13 +13245,13 @@
     </row>
     <row r="548" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D548" s="4" t="n">
         <v>2</v>
@@ -13262,13 +13265,13 @@
     </row>
     <row r="549" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D549" s="4" t="n">
         <v>2</v>
@@ -13282,13 +13285,13 @@
     </row>
     <row r="550" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D550" s="4" t="n">
         <v>2</v>
@@ -13302,13 +13305,13 @@
     </row>
     <row r="551" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D551" s="4" t="n">
         <v>2</v>
@@ -13322,13 +13325,13 @@
     </row>
     <row r="552" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D552" s="4" t="n">
         <v>2</v>
@@ -13342,13 +13345,13 @@
     </row>
     <row r="553" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D553" s="4" t="n">
         <v>2</v>
@@ -13362,10 +13365,10 @@
     </row>
     <row r="554" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C554" s="3" t="s">
         <v>35</v>
@@ -13382,10 +13385,10 @@
     </row>
     <row r="555" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>35</v>
@@ -13402,10 +13405,10 @@
     </row>
     <row r="556" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C556" s="3" t="s">
         <v>35</v>
@@ -13422,10 +13425,10 @@
     </row>
     <row r="557" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C557" s="3" t="s">
         <v>35</v>
@@ -13442,10 +13445,10 @@
     </row>
     <row r="558" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C558" s="3" t="s">
         <v>35</v>
@@ -13462,10 +13465,10 @@
     </row>
     <row r="559" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>35</v>
@@ -13482,10 +13485,10 @@
     </row>
     <row r="560" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C560" s="3" t="s">
         <v>35</v>
@@ -13502,10 +13505,10 @@
     </row>
     <row r="561" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C561" s="3" t="s">
         <v>35</v>
@@ -13522,10 +13525,10 @@
     </row>
     <row r="562" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C562" s="3" t="s">
         <v>35</v>
@@ -13542,10 +13545,10 @@
     </row>
     <row r="563" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C563" s="3" t="s">
         <v>35</v>
@@ -13562,13 +13565,13 @@
     </row>
     <row r="564" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D564" s="4" t="n">
         <v>4</v>
@@ -13582,13 +13585,13 @@
     </row>
     <row r="565" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C565" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C565" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D565" s="4" t="n">
         <v>4</v>
@@ -13602,13 +13605,13 @@
     </row>
     <row r="566" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D566" s="4" t="n">
         <v>4</v>
@@ -13622,13 +13625,13 @@
     </row>
     <row r="567" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D567" s="4" t="n">
         <v>4</v>
@@ -13642,13 +13645,13 @@
     </row>
     <row r="568" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D568" s="4" t="n">
         <v>4</v>
@@ -13662,13 +13665,13 @@
     </row>
     <row r="569" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D569" s="4" t="n">
         <v>4</v>
@@ -13682,13 +13685,13 @@
     </row>
     <row r="570" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D570" s="4" t="n">
         <v>4</v>
@@ -13702,13 +13705,13 @@
     </row>
     <row r="571" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D571" s="4" t="n">
         <v>4</v>
@@ -13722,13 +13725,13 @@
     </row>
     <row r="572" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D572" s="4" t="n">
         <v>4</v>
@@ -13742,13 +13745,13 @@
     </row>
     <row r="573" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D573" s="4" t="n">
         <v>4</v>
@@ -13762,13 +13765,13 @@
     </row>
     <row r="574" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D574" s="4" t="n">
         <v>5</v>
@@ -13782,13 +13785,13 @@
     </row>
     <row r="575" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C575" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B575" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C575" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="D575" s="4" t="n">
         <v>5</v>
@@ -13802,13 +13805,13 @@
     </row>
     <row r="576" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D576" s="4" t="n">
         <v>5</v>
@@ -13822,13 +13825,13 @@
     </row>
     <row r="577" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D577" s="4" t="n">
         <v>5</v>
@@ -13842,13 +13845,13 @@
     </row>
     <row r="578" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D578" s="4" t="n">
         <v>5</v>
@@ -13862,13 +13865,13 @@
     </row>
     <row r="579" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D579" s="4" t="n">
         <v>5</v>
@@ -13882,13 +13885,13 @@
     </row>
     <row r="580" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D580" s="4" t="n">
         <v>5</v>
@@ -13902,13 +13905,13 @@
     </row>
     <row r="581" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D581" s="4" t="n">
         <v>5</v>
@@ -13922,13 +13925,13 @@
     </row>
     <row r="582" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D582" s="4" t="n">
         <v>5</v>
@@ -13942,13 +13945,13 @@
     </row>
     <row r="583" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D583" s="4" t="n">
         <v>5</v>
@@ -13962,13 +13965,13 @@
     </row>
     <row r="584" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D584" s="4" t="n">
         <v>1</v>
@@ -13982,13 +13985,13 @@
     </row>
     <row r="585" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C585" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C585" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D585" s="4" t="n">
         <v>1</v>
@@ -14002,13 +14005,13 @@
     </row>
     <row r="586" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D586" s="4" t="n">
         <v>1</v>
@@ -14022,13 +14025,13 @@
     </row>
     <row r="587" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D587" s="4" t="n">
         <v>1</v>
@@ -14042,13 +14045,13 @@
     </row>
     <row r="588" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D588" s="4" t="n">
         <v>1</v>
@@ -14062,13 +14065,13 @@
     </row>
     <row r="589" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D589" s="4" t="n">
         <v>1</v>
@@ -14082,13 +14085,13 @@
     </row>
     <row r="590" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D590" s="4" t="n">
         <v>1</v>
@@ -14102,13 +14105,13 @@
     </row>
     <row r="591" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D591" s="4" t="n">
         <v>1</v>
@@ -14122,13 +14125,13 @@
     </row>
     <row r="592" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D592" s="4" t="n">
         <v>1</v>
@@ -14142,13 +14145,13 @@
     </row>
     <row r="593" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D593" s="4" t="n">
         <v>1</v>
@@ -14162,13 +14165,13 @@
     </row>
     <row r="594" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D594" s="4" t="n">
         <v>2</v>
@@ -14182,13 +14185,13 @@
     </row>
     <row r="595" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C595" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B595" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D595" s="4" t="n">
         <v>2</v>
@@ -14202,13 +14205,13 @@
     </row>
     <row r="596" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D596" s="4" t="n">
         <v>2</v>
@@ -14222,13 +14225,13 @@
     </row>
     <row r="597" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D597" s="4" t="n">
         <v>2</v>
@@ -14242,13 +14245,13 @@
     </row>
     <row r="598" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D598" s="4" t="n">
         <v>2</v>
@@ -14262,13 +14265,13 @@
     </row>
     <row r="599" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D599" s="4" t="n">
         <v>2</v>
@@ -14282,13 +14285,13 @@
     </row>
     <row r="600" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D600" s="4" t="n">
         <v>2</v>
@@ -14302,13 +14305,13 @@
     </row>
     <row r="601" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D601" s="4" t="n">
         <v>2</v>
@@ -14322,13 +14325,13 @@
     </row>
     <row r="602" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D602" s="4" t="n">
         <v>2</v>
@@ -14342,13 +14345,13 @@
     </row>
     <row r="603" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D603" s="4" t="n">
         <v>2</v>
@@ -14362,13 +14365,13 @@
     </row>
     <row r="604" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D604" s="4" t="n">
         <v>3</v>
@@ -14382,13 +14385,13 @@
     </row>
     <row r="605" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C605" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="B605" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C605" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="D605" s="4" t="n">
         <v>3</v>
@@ -14402,13 +14405,13 @@
     </row>
     <row r="606" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D606" s="4" t="n">
         <v>3</v>
@@ -14422,13 +14425,13 @@
     </row>
     <row r="607" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D607" s="4" t="n">
         <v>3</v>
@@ -14442,13 +14445,13 @@
     </row>
     <row r="608" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D608" s="4" t="n">
         <v>3</v>
@@ -14462,13 +14465,13 @@
     </row>
     <row r="609" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D609" s="4" t="n">
         <v>3</v>
@@ -14482,13 +14485,13 @@
     </row>
     <row r="610" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D610" s="4" t="n">
         <v>3</v>
@@ -14502,13 +14505,13 @@
     </row>
     <row r="611" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D611" s="4" t="n">
         <v>3</v>
@@ -14522,13 +14525,13 @@
     </row>
     <row r="612" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D612" s="4" t="n">
         <v>3</v>
@@ -14542,13 +14545,13 @@
     </row>
     <row r="613" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D613" s="4" t="n">
         <v>3</v>
@@ -14562,13 +14565,13 @@
     </row>
     <row r="614" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D614" s="4" t="n">
         <v>4</v>
@@ -14582,13 +14585,13 @@
     </row>
     <row r="615" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C615" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B615" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C615" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D615" s="4" t="n">
         <v>4</v>
@@ -14602,13 +14605,13 @@
     </row>
     <row r="616" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D616" s="4" t="n">
         <v>4</v>
@@ -14622,13 +14625,13 @@
     </row>
     <row r="617" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D617" s="4" t="n">
         <v>4</v>
@@ -14642,13 +14645,13 @@
     </row>
     <row r="618" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D618" s="4" t="n">
         <v>4</v>
@@ -14662,13 +14665,13 @@
     </row>
     <row r="619" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D619" s="4" t="n">
         <v>4</v>
@@ -14682,13 +14685,13 @@
     </row>
     <row r="620" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D620" s="4" t="n">
         <v>4</v>
@@ -14702,13 +14705,13 @@
     </row>
     <row r="621" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D621" s="4" t="n">
         <v>4</v>
@@ -14722,13 +14725,13 @@
     </row>
     <row r="622" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D622" s="4" t="n">
         <v>4</v>
@@ -14742,13 +14745,13 @@
     </row>
     <row r="623" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D623" s="4" t="n">
         <v>4</v>
@@ -14762,13 +14765,13 @@
     </row>
     <row r="624" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D624" s="4" t="n">
         <v>5</v>
@@ -14782,13 +14785,13 @@
     </row>
     <row r="625" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C625" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B625" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C625" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D625" s="4" t="n">
         <v>5</v>
@@ -14802,13 +14805,13 @@
     </row>
     <row r="626" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D626" s="4" t="n">
         <v>5</v>
@@ -14822,13 +14825,13 @@
     </row>
     <row r="627" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D627" s="4" t="n">
         <v>5</v>
@@ -14842,13 +14845,13 @@
     </row>
     <row r="628" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D628" s="4" t="n">
         <v>5</v>
@@ -14862,13 +14865,13 @@
     </row>
     <row r="629" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D629" s="4" t="n">
         <v>5</v>
@@ -14882,13 +14885,13 @@
     </row>
     <row r="630" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D630" s="4" t="n">
         <v>5</v>
@@ -14902,13 +14905,13 @@
     </row>
     <row r="631" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D631" s="4" t="n">
         <v>5</v>
@@ -14922,13 +14925,13 @@
     </row>
     <row r="632" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D632" s="4" t="n">
         <v>5</v>
@@ -14942,13 +14945,13 @@
     </row>
     <row r="633" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D633" s="4" t="n">
         <v>5</v>
@@ -14962,13 +14965,13 @@
     </row>
     <row r="634" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D634" s="4" t="n">
         <v>1</v>
@@ -14982,13 +14985,13 @@
     </row>
     <row r="635" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C635" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C635" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D635" s="4" t="n">
         <v>1</v>
@@ -15002,13 +15005,13 @@
     </row>
     <row r="636" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D636" s="4" t="n">
         <v>1</v>
@@ -15022,13 +15025,13 @@
     </row>
     <row r="637" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C637" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C637" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D637" s="4" t="n">
         <v>1</v>
@@ -15042,13 +15045,13 @@
     </row>
     <row r="638" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D638" s="4" t="n">
         <v>1</v>
@@ -15062,13 +15065,13 @@
     </row>
     <row r="639" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B639" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C639" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B639" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C639" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="D639" s="4" t="n">
         <v>1</v>
@@ -15082,13 +15085,13 @@
     </row>
     <row r="640" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D640" s="4" t="n">
         <v>1</v>
@@ -15102,13 +15105,13 @@
     </row>
     <row r="641" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B641" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C641" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="B641" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C641" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D641" s="4" t="n">
         <v>1</v>
@@ -15122,13 +15125,13 @@
     </row>
     <row r="642" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D642" s="4" t="n">
         <v>1</v>
@@ -15142,13 +15145,13 @@
     </row>
     <row r="643" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C643" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B643" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D643" s="4" t="n">
         <v>1</v>
@@ -15162,13 +15165,13 @@
     </row>
     <row r="644" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D644" s="4" t="n">
         <v>2</v>
@@ -15182,13 +15185,13 @@
     </row>
     <row r="645" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C645" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="B645" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C645" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="D645" s="4" t="n">
         <v>2</v>
@@ -15202,13 +15205,13 @@
     </row>
     <row r="646" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D646" s="4" t="n">
         <v>2</v>
@@ -15222,13 +15225,13 @@
     </row>
     <row r="647" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C647" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="B647" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C647" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D647" s="4" t="n">
         <v>2</v>
@@ -15242,10 +15245,10 @@
     </row>
     <row r="648" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C648" s="3" t="s">
         <v>37</v>
@@ -15262,10 +15265,10 @@
     </row>
     <row r="649" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C649" s="3" t="s">
         <v>37</v>
@@ -15282,13 +15285,13 @@
     </row>
     <row r="650" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D650" s="4" t="n">
         <v>2</v>
@@ -15302,13 +15305,13 @@
     </row>
     <row r="651" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C651" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B651" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C651" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="D651" s="4" t="n">
         <v>2</v>
@@ -15322,13 +15325,13 @@
     </row>
     <row r="652" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D652" s="4" t="n">
         <v>2</v>
@@ -15342,13 +15345,13 @@
     </row>
     <row r="653" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D653" s="4" t="n">
         <v>2</v>
@@ -15362,13 +15365,13 @@
     </row>
     <row r="654" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D654" s="4" t="n">
         <v>3</v>
@@ -15382,13 +15385,13 @@
     </row>
     <row r="655" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C655" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C655" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="D655" s="4" t="n">
         <v>3</v>
@@ -15402,13 +15405,13 @@
     </row>
     <row r="656" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D656" s="4" t="n">
         <v>3</v>
@@ -15422,13 +15425,13 @@
     </row>
     <row r="657" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D657" s="4" t="n">
         <v>3</v>
@@ -15442,13 +15445,13 @@
     </row>
     <row r="658" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D658" s="4" t="n">
         <v>3</v>
@@ -15462,13 +15465,13 @@
     </row>
     <row r="659" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C659" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="B659" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C659" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="D659" s="4" t="n">
         <v>3</v>
@@ -15482,13 +15485,13 @@
     </row>
     <row r="660" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D660" s="4" t="n">
         <v>3</v>
@@ -15502,13 +15505,13 @@
     </row>
     <row r="661" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D661" s="4" t="n">
         <v>3</v>
@@ -15522,13 +15525,13 @@
     </row>
     <row r="662" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D662" s="4" t="n">
         <v>3</v>
@@ -15542,13 +15545,13 @@
     </row>
     <row r="663" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C663" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="B663" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C663" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D663" s="4" t="n">
         <v>3</v>
@@ -15562,10 +15565,10 @@
     </row>
     <row r="664" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C664" s="3" t="s">
         <v>33</v>
@@ -15582,10 +15585,10 @@
     </row>
     <row r="665" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C665" s="3" t="s">
         <v>33</v>
@@ -15602,10 +15605,10 @@
     </row>
     <row r="666" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C666" s="3" t="s">
         <v>33</v>
@@ -15622,10 +15625,10 @@
     </row>
     <row r="667" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>33</v>
@@ -15642,13 +15645,13 @@
     </row>
     <row r="668" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D668" s="4" t="n">
         <v>4</v>
@@ -15662,13 +15665,13 @@
     </row>
     <row r="669" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C669" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B669" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C669" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D669" s="4" t="n">
         <v>4</v>
@@ -15682,13 +15685,13 @@
     </row>
     <row r="670" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D670" s="4" t="n">
         <v>4</v>
@@ -15702,13 +15705,13 @@
     </row>
     <row r="671" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D671" s="4" t="n">
         <v>4</v>
@@ -15722,13 +15725,13 @@
     </row>
     <row r="672" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D672" s="4" t="n">
         <v>4</v>
@@ -15742,13 +15745,13 @@
     </row>
     <row r="673" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C673" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="B673" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C673" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D673" s="4" t="n">
         <v>4</v>
@@ -15762,13 +15765,13 @@
     </row>
     <row r="674" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D674" s="4" t="n">
         <v>5</v>
@@ -15782,13 +15785,13 @@
     </row>
     <row r="675" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D675" s="4" t="n">
         <v>5</v>
@@ -15802,13 +15805,13 @@
     </row>
     <row r="676" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D676" s="4" t="n">
         <v>5</v>
@@ -15822,13 +15825,13 @@
     </row>
     <row r="677" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C677" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C677" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D677" s="4" t="n">
         <v>5</v>
@@ -15842,13 +15845,13 @@
     </row>
     <row r="678" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D678" s="4" t="n">
         <v>5</v>
@@ -15862,13 +15865,13 @@
     </row>
     <row r="679" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B679" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D679" s="4" t="n">
         <v>5</v>
@@ -15882,13 +15885,13 @@
     </row>
     <row r="680" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D680" s="4" t="n">
         <v>5</v>
@@ -15902,13 +15905,13 @@
     </row>
     <row r="681" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D681" s="4" t="n">
         <v>5</v>
@@ -15922,13 +15925,13 @@
     </row>
     <row r="682" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D682" s="4" t="n">
         <v>5</v>
@@ -15942,13 +15945,13 @@
     </row>
     <row r="683" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B683" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D683" s="4" t="n">
         <v>5</v>
@@ -15962,13 +15965,13 @@
     </row>
     <row r="684" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D684" s="4" t="n">
         <v>1</v>
@@ -15982,13 +15985,13 @@
     </row>
     <row r="685" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C685" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B685" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C685" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D685" s="4" t="n">
         <v>1</v>
@@ -16002,13 +16005,13 @@
     </row>
     <row r="686" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D686" s="4" t="n">
         <v>1</v>
@@ -16022,13 +16025,13 @@
     </row>
     <row r="687" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D687" s="4" t="n">
         <v>1</v>
@@ -16042,13 +16045,13 @@
     </row>
     <row r="688" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D688" s="4" t="n">
         <v>1</v>
@@ -16062,13 +16065,13 @@
     </row>
     <row r="689" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D689" s="4" t="n">
         <v>1</v>
@@ -16082,13 +16085,13 @@
     </row>
     <row r="690" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D690" s="4" t="n">
         <v>1</v>
@@ -16102,13 +16105,13 @@
     </row>
     <row r="691" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D691" s="4" t="n">
         <v>1</v>
@@ -16122,13 +16125,13 @@
     </row>
     <row r="692" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D692" s="4" t="n">
         <v>1</v>
@@ -16142,13 +16145,13 @@
     </row>
     <row r="693" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D693" s="4" t="n">
         <v>1</v>
@@ -16162,13 +16165,13 @@
     </row>
     <row r="694" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D694" s="4" t="n">
         <v>2</v>
@@ -16182,13 +16185,13 @@
     </row>
     <row r="695" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C695" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="B695" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C695" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="D695" s="4" t="n">
         <v>2</v>
@@ -16202,13 +16205,13 @@
     </row>
     <row r="696" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D696" s="4" t="n">
         <v>2</v>
@@ -16222,13 +16225,13 @@
     </row>
     <row r="697" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D697" s="4" t="n">
         <v>2</v>
@@ -16242,13 +16245,13 @@
     </row>
     <row r="698" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D698" s="4" t="n">
         <v>2</v>
@@ -16262,13 +16265,13 @@
     </row>
     <row r="699" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D699" s="4" t="n">
         <v>2</v>
@@ -16282,13 +16285,13 @@
     </row>
     <row r="700" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D700" s="4" t="n">
         <v>2</v>
@@ -16302,13 +16305,13 @@
     </row>
     <row r="701" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D701" s="4" t="n">
         <v>2</v>
@@ -16322,13 +16325,13 @@
     </row>
     <row r="702" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D702" s="4" t="n">
         <v>2</v>
@@ -16342,13 +16345,13 @@
     </row>
     <row r="703" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D703" s="4" t="n">
         <v>2</v>
@@ -16362,13 +16365,13 @@
     </row>
     <row r="704" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D704" s="4" t="n">
         <v>3</v>
@@ -16382,13 +16385,13 @@
     </row>
     <row r="705" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C705" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B705" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C705" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D705" s="4" t="n">
         <v>3</v>
@@ -16402,13 +16405,13 @@
     </row>
     <row r="706" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D706" s="4" t="n">
         <v>3</v>
@@ -16422,13 +16425,13 @@
     </row>
     <row r="707" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D707" s="4" t="n">
         <v>3</v>
@@ -16442,13 +16445,13 @@
     </row>
     <row r="708" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D708" s="4" t="n">
         <v>3</v>
@@ -16462,13 +16465,13 @@
     </row>
     <row r="709" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D709" s="4" t="n">
         <v>3</v>
@@ -16482,13 +16485,13 @@
     </row>
     <row r="710" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D710" s="4" t="n">
         <v>3</v>
@@ -16502,13 +16505,13 @@
     </row>
     <row r="711" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D711" s="4" t="n">
         <v>3</v>
@@ -16522,13 +16525,13 @@
     </row>
     <row r="712" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D712" s="4" t="n">
         <v>3</v>
@@ -16542,13 +16545,13 @@
     </row>
     <row r="713" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D713" s="4" t="n">
         <v>3</v>
@@ -16562,13 +16565,13 @@
     </row>
     <row r="714" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D714" s="4" t="n">
         <v>4</v>
@@ -16582,13 +16585,13 @@
     </row>
     <row r="715" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C715" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="B715" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C715" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="D715" s="4" t="n">
         <v>4</v>
@@ -16602,13 +16605,13 @@
     </row>
     <row r="716" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D716" s="4" t="n">
         <v>4</v>
@@ -16622,13 +16625,13 @@
     </row>
     <row r="717" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D717" s="4" t="n">
         <v>4</v>
@@ -16642,13 +16645,13 @@
     </row>
     <row r="718" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D718" s="4" t="n">
         <v>4</v>
@@ -16662,13 +16665,13 @@
     </row>
     <row r="719" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D719" s="4" t="n">
         <v>4</v>
@@ -16682,13 +16685,13 @@
     </row>
     <row r="720" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D720" s="4" t="n">
         <v>4</v>
@@ -16702,13 +16705,13 @@
     </row>
     <row r="721" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D721" s="4" t="n">
         <v>4</v>
@@ -16722,13 +16725,13 @@
     </row>
     <row r="722" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D722" s="4" t="n">
         <v>4</v>
@@ -16742,13 +16745,13 @@
     </row>
     <row r="723" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D723" s="4" t="n">
         <v>4</v>
@@ -16762,13 +16765,13 @@
     </row>
     <row r="724" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D724" s="4" t="n">
         <v>5</v>
@@ -16782,13 +16785,13 @@
     </row>
     <row r="725" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C725" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="B725" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C725" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D725" s="4" t="n">
         <v>5</v>
@@ -16802,13 +16805,13 @@
     </row>
     <row r="726" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D726" s="4" t="n">
         <v>5</v>
@@ -16822,13 +16825,13 @@
     </row>
     <row r="727" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D727" s="4" t="n">
         <v>5</v>
@@ -16842,13 +16845,13 @@
     </row>
     <row r="728" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D728" s="4" t="n">
         <v>5</v>
@@ -16862,13 +16865,13 @@
     </row>
     <row r="729" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D729" s="4" t="n">
         <v>5</v>
@@ -16882,13 +16885,13 @@
     </row>
     <row r="730" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D730" s="4" t="n">
         <v>5</v>
@@ -16902,13 +16905,13 @@
     </row>
     <row r="731" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D731" s="4" t="n">
         <v>5</v>
@@ -16922,13 +16925,13 @@
     </row>
     <row r="732" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D732" s="4" t="n">
         <v>5</v>
@@ -16942,13 +16945,13 @@
     </row>
     <row r="733" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D733" s="4" t="n">
         <v>5</v>
@@ -16962,13 +16965,13 @@
     </row>
     <row r="734" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D734" s="4" t="n">
         <v>1</v>
@@ -16982,13 +16985,13 @@
     </row>
     <row r="735" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C735" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C735" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D735" s="4" t="n">
         <v>1</v>
@@ -17002,13 +17005,13 @@
     </row>
     <row r="736" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D736" s="4" t="n">
         <v>1</v>
@@ -17022,13 +17025,13 @@
     </row>
     <row r="737" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D737" s="4" t="n">
         <v>1</v>
@@ -17042,13 +17045,13 @@
     </row>
     <row r="738" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D738" s="4" t="n">
         <v>1</v>
@@ -17062,13 +17065,13 @@
     </row>
     <row r="739" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D739" s="4" t="n">
         <v>1</v>
@@ -17082,13 +17085,13 @@
     </row>
     <row r="740" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D740" s="4" t="n">
         <v>1</v>
@@ -17102,13 +17105,13 @@
     </row>
     <row r="741" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D741" s="4" t="n">
         <v>1</v>
@@ -17122,13 +17125,13 @@
     </row>
     <row r="742" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D742" s="4" t="n">
         <v>1</v>
@@ -17142,13 +17145,13 @@
     </row>
     <row r="743" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D743" s="4" t="n">
         <v>1</v>
@@ -17162,13 +17165,13 @@
     </row>
     <row r="744" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D744" s="4" t="n">
         <v>2</v>
@@ -17182,13 +17185,13 @@
     </row>
     <row r="745" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C745" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="B745" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C745" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D745" s="4" t="n">
         <v>2</v>
@@ -17202,13 +17205,13 @@
     </row>
     <row r="746" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D746" s="4" t="n">
         <v>2</v>
@@ -17222,13 +17225,13 @@
     </row>
     <row r="747" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D747" s="4" t="n">
         <v>2</v>
@@ -17242,13 +17245,13 @@
     </row>
     <row r="748" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D748" s="4" t="n">
         <v>2</v>
@@ -17262,13 +17265,13 @@
     </row>
     <row r="749" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D749" s="4" t="n">
         <v>2</v>
@@ -17282,13 +17285,13 @@
     </row>
     <row r="750" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D750" s="4" t="n">
         <v>2</v>
@@ -17302,13 +17305,13 @@
     </row>
     <row r="751" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D751" s="4" t="n">
         <v>2</v>
@@ -17322,13 +17325,13 @@
     </row>
     <row r="752" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D752" s="4" t="n">
         <v>2</v>
@@ -17342,13 +17345,13 @@
     </row>
     <row r="753" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D753" s="4" t="n">
         <v>2</v>
@@ -17362,13 +17365,13 @@
     </row>
     <row r="754" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D754" s="4" t="n">
         <v>3</v>
@@ -17382,13 +17385,13 @@
     </row>
     <row r="755" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C755" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="B755" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C755" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D755" s="4" t="n">
         <v>3</v>
@@ -17402,13 +17405,13 @@
     </row>
     <row r="756" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D756" s="4" t="n">
         <v>3</v>
@@ -17422,13 +17425,13 @@
     </row>
     <row r="757" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D757" s="4" t="n">
         <v>3</v>
@@ -17442,13 +17445,13 @@
     </row>
     <row r="758" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D758" s="4" t="n">
         <v>3</v>
@@ -17462,13 +17465,13 @@
     </row>
     <row r="759" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D759" s="4" t="n">
         <v>3</v>
@@ -17482,13 +17485,13 @@
     </row>
     <row r="760" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D760" s="4" t="n">
         <v>3</v>
@@ -17502,13 +17505,13 @@
     </row>
     <row r="761" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D761" s="4" t="n">
         <v>3</v>
@@ -17522,13 +17525,13 @@
     </row>
     <row r="762" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D762" s="4" t="n">
         <v>3</v>
@@ -17542,13 +17545,13 @@
     </row>
     <row r="763" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D763" s="4" t="n">
         <v>3</v>
@@ -17562,13 +17565,13 @@
     </row>
     <row r="764" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D764" s="4" t="n">
         <v>4</v>
@@ -17582,13 +17585,13 @@
     </row>
     <row r="765" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C765" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="B765" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C765" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="D765" s="4" t="n">
         <v>4</v>
@@ -17602,13 +17605,13 @@
     </row>
     <row r="766" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D766" s="4" t="n">
         <v>4</v>
@@ -17622,13 +17625,13 @@
     </row>
     <row r="767" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D767" s="4" t="n">
         <v>4</v>
@@ -17642,13 +17645,13 @@
     </row>
     <row r="768" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D768" s="4" t="n">
         <v>4</v>
@@ -17662,13 +17665,13 @@
     </row>
     <row r="769" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D769" s="4" t="n">
         <v>4</v>
@@ -17682,13 +17685,13 @@
     </row>
     <row r="770" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D770" s="4" t="n">
         <v>4</v>
@@ -17702,13 +17705,13 @@
     </row>
     <row r="771" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D771" s="4" t="n">
         <v>4</v>
@@ -17722,13 +17725,13 @@
     </row>
     <row r="772" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D772" s="4" t="n">
         <v>4</v>
@@ -17742,13 +17745,13 @@
     </row>
     <row r="773" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D773" s="4" t="n">
         <v>4</v>
@@ -17765,10 +17768,10 @@
         <v>12</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D774" s="4" t="n">
         <v>5</v>
@@ -17782,13 +17785,13 @@
     </row>
     <row r="775" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C775" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="B775" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C775" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="D775" s="4" t="n">
         <v>5</v>
@@ -17802,13 +17805,13 @@
     </row>
     <row r="776" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D776" s="4" t="n">
         <v>5</v>
@@ -17822,13 +17825,13 @@
     </row>
     <row r="777" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D777" s="4" t="n">
         <v>5</v>
@@ -17842,13 +17845,13 @@
     </row>
     <row r="778" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D778" s="4" t="n">
         <v>5</v>
@@ -17862,13 +17865,13 @@
     </row>
     <row r="779" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D779" s="4" t="n">
         <v>5</v>
@@ -17882,13 +17885,13 @@
     </row>
     <row r="780" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D780" s="4" t="n">
         <v>5</v>
@@ -17902,13 +17905,13 @@
     </row>
     <row r="781" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D781" s="4" t="n">
         <v>5</v>
@@ -17922,13 +17925,13 @@
     </row>
     <row r="782" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D782" s="4" t="n">
         <v>5</v>
@@ -17942,13 +17945,13 @@
     </row>
     <row r="783" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D783" s="4" t="n">
         <v>5</v>
@@ -17962,19 +17965,19 @@
     </row>
     <row r="784" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D784" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E784" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F784" s="4" t="n">
         <v>30</v>
@@ -17982,19 +17985,19 @@
     </row>
     <row r="785" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D785" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E785" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F785" s="4" t="n">
         <v>30</v>
@@ -18002,19 +18005,19 @@
     </row>
     <row r="786" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D786" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F786" s="4" t="n">
         <v>30</v>
@@ -18022,19 +18025,19 @@
     </row>
     <row r="787" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D787" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E787" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F787" s="4" t="n">
         <v>30</v>
@@ -18042,19 +18045,19 @@
     </row>
     <row r="788" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D788" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E788" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F788" s="4" t="n">
         <v>30</v>
@@ -18062,19 +18065,19 @@
     </row>
     <row r="789" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D789" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E789" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F789" s="4" t="n">
         <v>30</v>
@@ -18082,19 +18085,19 @@
     </row>
     <row r="790" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D790" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E790" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F790" s="4" t="n">
         <v>30</v>
@@ -18102,19 +18105,19 @@
     </row>
     <row r="791" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D791" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E791" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F791" s="4" t="n">
         <v>30</v>
@@ -18122,19 +18125,19 @@
     </row>
     <row r="792" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D792" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E792" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F792" s="4" t="n">
         <v>30</v>
@@ -18142,19 +18145,19 @@
     </row>
     <row r="793" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D793" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E793" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F793" s="4" t="n">
         <v>30</v>
@@ -18162,19 +18165,19 @@
     </row>
     <row r="794" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D794" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E794" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F794" s="4" t="n">
         <v>30</v>
@@ -18182,19 +18185,19 @@
     </row>
     <row r="795" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C795" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="B795" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C795" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="D795" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E795" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F795" s="4" t="n">
         <v>30</v>
@@ -18202,19 +18205,19 @@
     </row>
     <row r="796" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D796" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E796" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F796" s="4" t="n">
         <v>30</v>
@@ -18222,19 +18225,19 @@
     </row>
     <row r="797" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D797" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E797" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F797" s="4" t="n">
         <v>30</v>
@@ -18242,19 +18245,19 @@
     </row>
     <row r="798" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D798" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E798" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F798" s="4" t="n">
         <v>30</v>
@@ -18262,19 +18265,19 @@
     </row>
     <row r="799" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D799" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E799" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F799" s="4" t="n">
         <v>30</v>
@@ -18282,19 +18285,19 @@
     </row>
     <row r="800" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D800" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E800" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F800" s="4" t="n">
         <v>30</v>
@@ -18302,19 +18305,19 @@
     </row>
     <row r="801" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D801" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E801" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F801" s="4" t="n">
         <v>30</v>
@@ -18322,19 +18325,19 @@
     </row>
     <row r="802" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D802" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E802" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F802" s="4" t="n">
         <v>30</v>
@@ -18342,19 +18345,19 @@
     </row>
     <row r="803" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D803" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F803" s="4" t="n">
         <v>30</v>
@@ -18362,19 +18365,19 @@
     </row>
     <row r="804" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D804" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E804" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F804" s="4" t="n">
         <v>30</v>
@@ -18382,19 +18385,19 @@
     </row>
     <row r="805" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C805" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="B805" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C805" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="D805" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E805" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F805" s="4" t="n">
         <v>30</v>
@@ -18402,19 +18405,19 @@
     </row>
     <row r="806" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D806" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E806" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F806" s="4" t="n">
         <v>30</v>
@@ -18422,19 +18425,19 @@
     </row>
     <row r="807" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D807" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F807" s="4" t="n">
         <v>30</v>
@@ -18442,19 +18445,19 @@
     </row>
     <row r="808" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D808" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E808" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F808" s="4" t="n">
         <v>30</v>
@@ -18462,19 +18465,19 @@
     </row>
     <row r="809" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D809" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E809" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F809" s="4" t="n">
         <v>30</v>
@@ -18482,19 +18485,19 @@
     </row>
     <row r="810" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D810" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E810" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F810" s="4" t="n">
         <v>30</v>
@@ -18502,19 +18505,19 @@
     </row>
     <row r="811" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D811" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E811" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F811" s="4" t="n">
         <v>30</v>
@@ -18522,19 +18525,19 @@
     </row>
     <row r="812" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D812" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E812" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F812" s="4" t="n">
         <v>30</v>
@@ -18542,19 +18545,19 @@
     </row>
     <row r="813" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D813" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E813" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F813" s="4" t="n">
         <v>30</v>
@@ -18562,19 +18565,19 @@
     </row>
     <row r="814" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D814" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E814" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F814" s="4" t="n">
         <v>30</v>
@@ -18582,19 +18585,19 @@
     </row>
     <row r="815" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C815" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="B815" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C815" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="D815" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E815" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F815" s="4" t="n">
         <v>30</v>
@@ -18602,19 +18605,19 @@
     </row>
     <row r="816" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D816" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E816" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F816" s="4" t="n">
         <v>30</v>
@@ -18622,19 +18625,19 @@
     </row>
     <row r="817" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D817" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E817" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F817" s="4" t="n">
         <v>30</v>
@@ -18642,19 +18645,19 @@
     </row>
     <row r="818" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D818" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E818" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F818" s="4" t="n">
         <v>30</v>
@@ -18662,19 +18665,19 @@
     </row>
     <row r="819" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D819" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E819" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F819" s="4" t="n">
         <v>30</v>
@@ -18682,19 +18685,19 @@
     </row>
     <row r="820" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D820" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E820" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F820" s="4" t="n">
         <v>30</v>
@@ -18702,19 +18705,19 @@
     </row>
     <row r="821" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D821" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E821" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F821" s="4" t="n">
         <v>30</v>
@@ -18722,19 +18725,19 @@
     </row>
     <row r="822" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D822" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E822" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F822" s="4" t="n">
         <v>30</v>
@@ -18742,19 +18745,19 @@
     </row>
     <row r="823" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D823" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E823" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F823" s="4" t="n">
         <v>30</v>
@@ -18762,19 +18765,19 @@
     </row>
     <row r="824" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D824" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E824" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F824" s="4" t="n">
         <v>30</v>
@@ -18782,19 +18785,19 @@
     </row>
     <row r="825" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C825" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B825" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C825" s="3" t="s">
-        <v>595</v>
-      </c>
       <c r="D825" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E825" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F825" s="4" t="n">
         <v>30</v>
@@ -18802,19 +18805,19 @@
     </row>
     <row r="826" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D826" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E826" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F826" s="4" t="n">
         <v>30</v>
@@ -18822,19 +18825,19 @@
     </row>
     <row r="827" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D827" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E827" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F827" s="4" t="n">
         <v>30</v>
@@ -18842,19 +18845,19 @@
     </row>
     <row r="828" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D828" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E828" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F828" s="4" t="n">
         <v>30</v>
@@ -18862,19 +18865,19 @@
     </row>
     <row r="829" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C829" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D829" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E829" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F829" s="4" t="n">
         <v>30</v>
@@ -18882,19 +18885,19 @@
     </row>
     <row r="830" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D830" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E830" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F830" s="4" t="n">
         <v>30</v>
@@ -18902,19 +18905,19 @@
     </row>
     <row r="831" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D831" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F831" s="4" t="n">
         <v>30</v>
@@ -18922,19 +18925,19 @@
     </row>
     <row r="832" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D832" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E832" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F832" s="4" t="n">
         <v>30</v>
@@ -18942,19 +18945,19 @@
     </row>
     <row r="833" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D833" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E833" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F833" s="4" t="n">
         <v>30</v>
@@ -18962,13 +18965,13 @@
     </row>
     <row r="834" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D834" s="4" t="n">
         <v>1</v>
@@ -18982,13 +18985,13 @@
     </row>
     <row r="835" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C835" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="B835" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C835" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="D835" s="4" t="n">
         <v>1</v>
@@ -19002,19 +19005,19 @@
     </row>
     <row r="836" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D836" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E836" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F836" s="4" t="n">
         <v>30</v>
@@ -19022,10 +19025,10 @@
     </row>
     <row r="837" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C837" s="3" t="s">
         <v>13</v>
@@ -19042,13 +19045,13 @@
     </row>
     <row r="838" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D838" s="4" t="n">
         <v>1</v>
@@ -19062,13 +19065,13 @@
     </row>
     <row r="839" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D839" s="4" t="n">
         <v>1</v>
@@ -19082,10 +19085,10 @@
     </row>
     <row r="840" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C840" s="3" t="s">
         <v>13</v>
@@ -19102,13 +19105,13 @@
     </row>
     <row r="841" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D841" s="4" t="n">
         <v>1</v>
@@ -19122,13 +19125,13 @@
     </row>
     <row r="842" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D842" s="4" t="n">
         <v>1</v>
@@ -19142,13 +19145,13 @@
     </row>
     <row r="843" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D843" s="4" t="n">
         <v>1</v>
@@ -19162,13 +19165,13 @@
     </row>
     <row r="844" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D844" s="4" t="n">
         <v>2</v>
@@ -19182,13 +19185,13 @@
     </row>
     <row r="845" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D845" s="4" t="n">
         <v>2</v>
@@ -19202,19 +19205,19 @@
     </row>
     <row r="846" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C846" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D846" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E846" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F846" s="4" t="n">
         <v>30</v>
@@ -19222,13 +19225,13 @@
     </row>
     <row r="847" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D847" s="4" t="n">
         <v>2</v>
@@ -19242,13 +19245,13 @@
     </row>
     <row r="848" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C848" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D848" s="4" t="n">
         <v>2</v>
@@ -19262,13 +19265,13 @@
     </row>
     <row r="849" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D849" s="4" t="n">
         <v>2</v>
@@ -19282,13 +19285,13 @@
     </row>
     <row r="850" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D850" s="4" t="n">
         <v>2</v>
@@ -19302,13 +19305,13 @@
     </row>
     <row r="851" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D851" s="4" t="n">
         <v>2</v>
@@ -19322,13 +19325,13 @@
     </row>
     <row r="852" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D852" s="4" t="n">
         <v>2</v>
@@ -19342,13 +19345,13 @@
     </row>
     <row r="853" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D853" s="4" t="n">
         <v>2</v>
@@ -19362,13 +19365,13 @@
     </row>
     <row r="854" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D854" s="4" t="n">
         <v>3</v>
@@ -19382,13 +19385,13 @@
     </row>
     <row r="855" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C855" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D855" s="4" t="n">
         <v>3</v>
@@ -19402,19 +19405,19 @@
     </row>
     <row r="856" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C856" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D856" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E856" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F856" s="4" t="n">
         <v>30</v>
@@ -19422,13 +19425,13 @@
     </row>
     <row r="857" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C857" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D857" s="4" t="n">
         <v>3</v>
@@ -19442,13 +19445,13 @@
     </row>
     <row r="858" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C858" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D858" s="4" t="n">
         <v>3</v>
@@ -19462,13 +19465,13 @@
     </row>
     <row r="859" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D859" s="4" t="n">
         <v>3</v>
@@ -19482,13 +19485,13 @@
     </row>
     <row r="860" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D860" s="4" t="n">
         <v>3</v>
@@ -19502,13 +19505,13 @@
     </row>
     <row r="861" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C861" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D861" s="4" t="n">
         <v>3</v>
@@ -19522,13 +19525,13 @@
     </row>
     <row r="862" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C862" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D862" s="4" t="n">
         <v>3</v>
@@ -19542,13 +19545,13 @@
     </row>
     <row r="863" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D863" s="4" t="n">
         <v>3</v>
@@ -19562,13 +19565,13 @@
     </row>
     <row r="864" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C864" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D864" s="4" t="n">
         <v>4</v>
@@ -19582,13 +19585,13 @@
     </row>
     <row r="865" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C865" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D865" s="4" t="n">
         <v>4</v>
@@ -19602,19 +19605,19 @@
     </row>
     <row r="866" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C866" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D866" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E866" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F866" s="4" t="n">
         <v>30</v>
@@ -19622,13 +19625,13 @@
     </row>
     <row r="867" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C867" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D867" s="4" t="n">
         <v>4</v>
@@ -19642,13 +19645,13 @@
     </row>
     <row r="868" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C868" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D868" s="4" t="n">
         <v>4</v>
@@ -19662,13 +19665,13 @@
     </row>
     <row r="869" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C869" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D869" s="4" t="n">
         <v>4</v>
@@ -19682,13 +19685,13 @@
     </row>
     <row r="870" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C870" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D870" s="4" t="n">
         <v>4</v>
@@ -19702,13 +19705,13 @@
     </row>
     <row r="871" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C871" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D871" s="4" t="n">
         <v>4</v>
@@ -19722,13 +19725,13 @@
     </row>
     <row r="872" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C872" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D872" s="4" t="n">
         <v>4</v>
@@ -19742,13 +19745,13 @@
     </row>
     <row r="873" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C873" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D873" s="4" t="n">
         <v>4</v>
@@ -19762,13 +19765,13 @@
     </row>
     <row r="874" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C874" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D874" s="4" t="n">
         <v>5</v>
@@ -19782,13 +19785,13 @@
     </row>
     <row r="875" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C875" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D875" s="4" t="n">
         <v>5</v>
@@ -19802,19 +19805,19 @@
     </row>
     <row r="876" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C876" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D876" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E876" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F876" s="4" t="n">
         <v>30</v>
@@ -19822,13 +19825,13 @@
     </row>
     <row r="877" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C877" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D877" s="4" t="n">
         <v>5</v>
@@ -19842,13 +19845,13 @@
     </row>
     <row r="878" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C878" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D878" s="4" t="n">
         <v>5</v>
@@ -19862,13 +19865,13 @@
     </row>
     <row r="879" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C879" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D879" s="4" t="n">
         <v>5</v>
@@ -19882,13 +19885,13 @@
     </row>
     <row r="880" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C880" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D880" s="4" t="n">
         <v>5</v>
@@ -19902,13 +19905,13 @@
     </row>
     <row r="881" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C881" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D881" s="4" t="n">
         <v>5</v>
@@ -19922,13 +19925,13 @@
     </row>
     <row r="882" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C882" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D882" s="4" t="n">
         <v>5</v>
@@ -19942,13 +19945,13 @@
     </row>
     <row r="883" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C883" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D883" s="4" t="n">
         <v>5</v>
@@ -19965,7 +19968,7 @@
         <v>6</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C884" s="3" t="s">
         <v>8</v>
@@ -19982,10 +19985,10 @@
     </row>
     <row r="885" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B885" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="B885" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="C885" s="3" t="s">
         <v>8</v>
@@ -20002,10 +20005,10 @@
     </row>
     <row r="886" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C886" s="3" t="s">
         <v>8</v>
@@ -20022,10 +20025,10 @@
     </row>
     <row r="887" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C887" s="3" t="s">
         <v>213</v>
@@ -20042,10 +20045,10 @@
     </row>
     <row r="888" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C888" s="3" t="s">
         <v>8</v>
@@ -20062,10 +20065,10 @@
     </row>
     <row r="889" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C889" s="3" t="s">
         <v>8</v>
@@ -20082,13 +20085,13 @@
     </row>
     <row r="890" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C890" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D890" s="4" t="n">
         <v>1</v>
@@ -20102,13 +20105,13 @@
     </row>
     <row r="891" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C891" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D891" s="4" t="n">
         <v>1</v>
@@ -20122,10 +20125,10 @@
     </row>
     <row r="892" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C892" s="3" t="s">
         <v>209</v>
@@ -20134,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="E892" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F892" s="4" t="n">
         <v>30</v>
@@ -20142,10 +20145,10 @@
     </row>
     <row r="893" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C893" s="3" t="s">
         <v>213</v>
@@ -20165,7 +20168,7 @@
         <v>6</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C894" s="3" t="s">
         <v>32</v>
@@ -20182,10 +20185,10 @@
     </row>
     <row r="895" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B895" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="B895" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="C895" s="3" t="s">
         <v>32</v>
@@ -20202,10 +20205,10 @@
     </row>
     <row r="896" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C896" s="3" t="s">
         <v>32</v>
@@ -20222,13 +20225,13 @@
     </row>
     <row r="897" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C897" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D897" s="4" t="n">
         <v>2</v>
@@ -20242,10 +20245,10 @@
     </row>
     <row r="898" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C898" s="3" t="s">
         <v>32</v>
@@ -20262,10 +20265,10 @@
     </row>
     <row r="899" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C899" s="3" t="s">
         <v>32</v>
@@ -20282,13 +20285,13 @@
     </row>
     <row r="900" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C900" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D900" s="4" t="n">
         <v>2</v>
@@ -20302,13 +20305,13 @@
     </row>
     <row r="901" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C901" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D901" s="4" t="n">
         <v>2</v>
@@ -20322,19 +20325,19 @@
     </row>
     <row r="902" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C902" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D902" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E902" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F902" s="4" t="n">
         <v>30</v>
@@ -20342,13 +20345,13 @@
     </row>
     <row r="903" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D903" s="4" t="n">
         <v>2</v>
@@ -20365,7 +20368,7 @@
         <v>6</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C904" s="3" t="s">
         <v>41</v>
@@ -20382,10 +20385,10 @@
     </row>
     <row r="905" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B905" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="B905" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="C905" s="3" t="s">
         <v>41</v>
@@ -20402,10 +20405,10 @@
     </row>
     <row r="906" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C906" s="3" t="s">
         <v>41</v>
@@ -20422,13 +20425,13 @@
     </row>
     <row r="907" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C907" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D907" s="4" t="n">
         <v>3</v>
@@ -20442,10 +20445,10 @@
     </row>
     <row r="908" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C908" s="3" t="s">
         <v>41</v>
@@ -20462,10 +20465,10 @@
     </row>
     <row r="909" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C909" s="3" t="s">
         <v>41</v>
@@ -20482,13 +20485,13 @@
     </row>
     <row r="910" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C910" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D910" s="4" t="n">
         <v>3</v>
@@ -20502,13 +20505,13 @@
     </row>
     <row r="911" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C911" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D911" s="4" t="n">
         <v>3</v>
@@ -20522,19 +20525,19 @@
     </row>
     <row r="912" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C912" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D912" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E912" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F912" s="4" t="n">
         <v>30</v>
@@ -20542,13 +20545,13 @@
     </row>
     <row r="913" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C913" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D913" s="4" t="n">
         <v>3</v>
@@ -20565,7 +20568,7 @@
         <v>6</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C914" s="3" t="s">
         <v>49</v>
@@ -20582,10 +20585,10 @@
     </row>
     <row r="915" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B915" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="B915" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="C915" s="3" t="s">
         <v>49</v>
@@ -20602,10 +20605,10 @@
     </row>
     <row r="916" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C916" s="3" t="s">
         <v>49</v>
@@ -20622,13 +20625,13 @@
     </row>
     <row r="917" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C917" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D917" s="4" t="n">
         <v>4</v>
@@ -20642,10 +20645,10 @@
     </row>
     <row r="918" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C918" s="3" t="s">
         <v>49</v>
@@ -20662,10 +20665,10 @@
     </row>
     <row r="919" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C919" s="3" t="s">
         <v>49</v>
@@ -20682,13 +20685,13 @@
     </row>
     <row r="920" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C920" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D920" s="4" t="n">
         <v>4</v>
@@ -20702,13 +20705,13 @@
     </row>
     <row r="921" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D921" s="4" t="n">
         <v>4</v>
@@ -20722,19 +20725,19 @@
     </row>
     <row r="922" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C922" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D922" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E922" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F922" s="4" t="n">
         <v>30</v>
@@ -20742,13 +20745,13 @@
     </row>
     <row r="923" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C923" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D923" s="4" t="n">
         <v>4</v>
@@ -20765,7 +20768,7 @@
         <v>6</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C924" s="3" t="s">
         <v>57</v>
@@ -20782,10 +20785,10 @@
     </row>
     <row r="925" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B925" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="B925" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="C925" s="3" t="s">
         <v>57</v>
@@ -20802,10 +20805,10 @@
     </row>
     <row r="926" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C926" s="3" t="s">
         <v>57</v>
@@ -20822,13 +20825,13 @@
     </row>
     <row r="927" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C927" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D927" s="4" t="n">
         <v>5</v>
@@ -20842,10 +20845,10 @@
     </row>
     <row r="928" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C928" s="3" t="s">
         <v>57</v>
@@ -20862,10 +20865,10 @@
     </row>
     <row r="929" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C929" s="3" t="s">
         <v>57</v>
@@ -20882,13 +20885,13 @@
     </row>
     <row r="930" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C930" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D930" s="4" t="n">
         <v>5</v>
@@ -20902,13 +20905,13 @@
     </row>
     <row r="931" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C931" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D931" s="4" t="n">
         <v>5</v>
@@ -20922,19 +20925,19 @@
     </row>
     <row r="932" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C932" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D932" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E932" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F932" s="4" t="n">
         <v>30</v>
@@ -20942,13 +20945,13 @@
     </row>
     <row r="933" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C933" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D933" s="4" t="n">
         <v>5</v>
@@ -20965,7 +20968,7 @@
         <v>6</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C934" s="3" t="s">
         <v>8</v>
@@ -20982,10 +20985,10 @@
     </row>
     <row r="935" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C935" s="3" t="s">
         <v>8</v>
@@ -21002,10 +21005,10 @@
     </row>
     <row r="936" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C936" s="3" t="s">
         <v>8</v>
@@ -21022,10 +21025,10 @@
     </row>
     <row r="937" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C937" s="3" t="s">
         <v>213</v>
@@ -21042,10 +21045,10 @@
     </row>
     <row r="938" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C938" s="3" t="s">
         <v>8</v>
@@ -21062,10 +21065,10 @@
     </row>
     <row r="939" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C939" s="3" t="s">
         <v>8</v>
@@ -21082,13 +21085,13 @@
     </row>
     <row r="940" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C940" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D940" s="4" t="n">
         <v>1</v>
@@ -21102,13 +21105,13 @@
     </row>
     <row r="941" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C941" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D941" s="4" t="n">
         <v>1</v>
@@ -21122,10 +21125,10 @@
     </row>
     <row r="942" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C942" s="3" t="s">
         <v>209</v>
@@ -21134,7 +21137,7 @@
         <v>1</v>
       </c>
       <c r="E942" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F942" s="4" t="n">
         <v>30</v>
@@ -21142,10 +21145,10 @@
     </row>
     <row r="943" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C943" s="3" t="s">
         <v>213</v>
@@ -21165,7 +21168,7 @@
         <v>6</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C944" s="3" t="s">
         <v>32</v>
@@ -21182,10 +21185,10 @@
     </row>
     <row r="945" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C945" s="3" t="s">
         <v>32</v>
@@ -21202,10 +21205,10 @@
     </row>
     <row r="946" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C946" s="3" t="s">
         <v>32</v>
@@ -21222,13 +21225,13 @@
     </row>
     <row r="947" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C947" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D947" s="4" t="n">
         <v>2</v>
@@ -21242,10 +21245,10 @@
     </row>
     <row r="948" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B948" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C948" s="3" t="s">
         <v>32</v>
@@ -21262,10 +21265,10 @@
     </row>
     <row r="949" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B949" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C949" s="3" t="s">
         <v>32</v>
@@ -21282,13 +21285,13 @@
     </row>
     <row r="950" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B950" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C950" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D950" s="4" t="n">
         <v>2</v>
@@ -21302,13 +21305,13 @@
     </row>
     <row r="951" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B951" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C951" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D951" s="4" t="n">
         <v>2</v>
@@ -21322,19 +21325,19 @@
     </row>
     <row r="952" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B952" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C952" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D952" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E952" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F952" s="4" t="n">
         <v>30</v>
@@ -21342,13 +21345,13 @@
     </row>
     <row r="953" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B953" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C953" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D953" s="4" t="n">
         <v>2</v>
@@ -21365,7 +21368,7 @@
         <v>6</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C954" s="3" t="s">
         <v>41</v>
@@ -21382,10 +21385,10 @@
     </row>
     <row r="955" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B955" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C955" s="3" t="s">
         <v>41</v>
@@ -21402,10 +21405,10 @@
     </row>
     <row r="956" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B956" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C956" s="3" t="s">
         <v>41</v>
@@ -21422,13 +21425,13 @@
     </row>
     <row r="957" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C957" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D957" s="4" t="n">
         <v>3</v>
@@ -21442,10 +21445,10 @@
     </row>
     <row r="958" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>41</v>
@@ -21462,10 +21465,10 @@
     </row>
     <row r="959" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B959" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C959" s="3" t="s">
         <v>41</v>
@@ -21482,13 +21485,13 @@
     </row>
     <row r="960" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C960" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D960" s="4" t="n">
         <v>3</v>
@@ -21502,13 +21505,13 @@
     </row>
     <row r="961" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D961" s="4" t="n">
         <v>3</v>
@@ -21522,19 +21525,19 @@
     </row>
     <row r="962" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C962" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D962" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E962" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F962" s="4" t="n">
         <v>30</v>
@@ -21542,13 +21545,13 @@
     </row>
     <row r="963" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C963" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D963" s="4" t="n">
         <v>3</v>
@@ -21565,7 +21568,7 @@
         <v>6</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C964" s="3" t="s">
         <v>49</v>
@@ -21582,10 +21585,10 @@
     </row>
     <row r="965" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B965" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C965" s="3" t="s">
         <v>49</v>
@@ -21602,10 +21605,10 @@
     </row>
     <row r="966" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C966" s="3" t="s">
         <v>49</v>
@@ -21622,13 +21625,13 @@
     </row>
     <row r="967" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B967" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C967" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D967" s="4" t="n">
         <v>4</v>
@@ -21642,10 +21645,10 @@
     </row>
     <row r="968" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B968" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C968" s="3" t="s">
         <v>49</v>
@@ -21662,10 +21665,10 @@
     </row>
     <row r="969" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C969" s="3" t="s">
         <v>49</v>
@@ -21682,13 +21685,13 @@
     </row>
     <row r="970" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B970" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C970" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D970" s="4" t="n">
         <v>4</v>
@@ -21702,13 +21705,13 @@
     </row>
     <row r="971" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B971" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C971" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D971" s="4" t="n">
         <v>4</v>
@@ -21722,19 +21725,19 @@
     </row>
     <row r="972" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B972" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C972" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D972" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E972" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F972" s="4" t="n">
         <v>30</v>
@@ -21742,13 +21745,13 @@
     </row>
     <row r="973" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C973" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D973" s="4" t="n">
         <v>4</v>
@@ -21765,7 +21768,7 @@
         <v>6</v>
       </c>
       <c r="B974" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C974" s="3" t="s">
         <v>57</v>
@@ -21782,10 +21785,10 @@
     </row>
     <row r="975" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B975" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C975" s="3" t="s">
         <v>57</v>
@@ -21802,10 +21805,10 @@
     </row>
     <row r="976" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B976" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C976" s="3" t="s">
         <v>57</v>
@@ -21822,13 +21825,13 @@
     </row>
     <row r="977" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C977" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D977" s="4" t="n">
         <v>5</v>
@@ -21842,10 +21845,10 @@
     </row>
     <row r="978" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C978" s="3" t="s">
         <v>57</v>
@@ -21862,10 +21865,10 @@
     </row>
     <row r="979" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B979" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C979" s="3" t="s">
         <v>57</v>
@@ -21882,13 +21885,13 @@
     </row>
     <row r="980" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B980" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C980" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D980" s="4" t="n">
         <v>5</v>
@@ -21902,13 +21905,13 @@
     </row>
     <row r="981" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B981" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C981" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D981" s="4" t="n">
         <v>5</v>
@@ -21922,19 +21925,19 @@
     </row>
     <row r="982" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B982" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C982" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D982" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E982" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F982" s="4" t="n">
         <v>30</v>
@@ -21942,13 +21945,13 @@
     </row>
     <row r="983" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B983" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C983" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="C983" s="3" t="s">
-        <v>662</v>
       </c>
       <c r="D983" s="4" t="n">
         <v>5</v>
@@ -21962,7 +21965,7 @@
     </row>
     <row r="984" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B984" s="3" t="s">
         <v>5</v>
@@ -21982,7 +21985,7 @@
     </row>
     <row r="985" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B985" s="3" t="s">
         <v>5</v>
@@ -22002,7 +22005,7 @@
     </row>
     <row r="986" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B986" s="3" t="s">
         <v>5</v>
@@ -22022,19 +22025,19 @@
     </row>
     <row r="987" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B987" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C987" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D987" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E987" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F987" s="4" t="n">
         <v>30</v>
@@ -22042,13 +22045,13 @@
     </row>
     <row r="988" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B988" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C988" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D988" s="4" t="n">
         <v>1</v>
@@ -22062,7 +22065,7 @@
     </row>
     <row r="989" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B989" s="3" t="s">
         <v>5</v>
@@ -22082,13 +22085,13 @@
     </row>
     <row r="990" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B990" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C990" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D990" s="4" t="n">
         <v>1</v>
@@ -22102,13 +22105,13 @@
     </row>
     <row r="991" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B991" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C991" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D991" s="4" t="n">
         <v>1</v>
@@ -22122,7 +22125,7 @@
     </row>
     <row r="992" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B992" s="3" t="s">
         <v>5</v>
@@ -22142,13 +22145,13 @@
     </row>
     <row r="993" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B993" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C993" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D993" s="4" t="n">
         <v>1</v>
@@ -22162,13 +22165,13 @@
     </row>
     <row r="994" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B994" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C994" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D994" s="4" t="n">
         <v>2</v>
@@ -22182,13 +22185,13 @@
     </row>
     <row r="995" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C995" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D995" s="4" t="n">
         <v>2</v>
@@ -22202,13 +22205,13 @@
     </row>
     <row r="996" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C996" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D996" s="4" t="n">
         <v>2</v>
@@ -22222,19 +22225,19 @@
     </row>
     <row r="997" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B997" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C997" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D997" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E997" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F997" s="4" t="n">
         <v>30</v>
@@ -22242,13 +22245,13 @@
     </row>
     <row r="998" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B998" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C998" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D998" s="4" t="n">
         <v>2</v>
@@ -22262,13 +22265,13 @@
     </row>
     <row r="999" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B999" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C999" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D999" s="4" t="n">
         <v>2</v>
@@ -22282,13 +22285,13 @@
     </row>
     <row r="1000" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1000" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1000" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D1000" s="4" t="n">
         <v>2</v>
@@ -22302,13 +22305,13 @@
     </row>
     <row r="1001" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1001" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1001" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D1001" s="4" t="n">
         <v>2</v>
@@ -22322,13 +22325,13 @@
     </row>
     <row r="1002" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B1002" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1002" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D1002" s="4" t="n">
         <v>2</v>
@@ -22342,13 +22345,13 @@
     </row>
     <row r="1003" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1003" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1003" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D1003" s="4" t="n">
         <v>2</v>
@@ -22362,13 +22365,13 @@
     </row>
     <row r="1004" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B1004" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1004" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D1004" s="4" t="n">
         <v>3</v>
@@ -22382,13 +22385,13 @@
     </row>
     <row r="1005" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1005" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D1005" s="4" t="n">
         <v>3</v>
@@ -22402,13 +22405,13 @@
     </row>
     <row r="1006" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1006" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D1006" s="4" t="n">
         <v>3</v>
@@ -22422,19 +22425,19 @@
     </row>
     <row r="1007" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B1007" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1007" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D1007" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E1007" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F1007" s="4" t="n">
         <v>30</v>
@@ -22442,13 +22445,13 @@
     </row>
     <row r="1008" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B1008" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1008" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D1008" s="4" t="n">
         <v>3</v>
@@ -22462,13 +22465,13 @@
     </row>
     <row r="1009" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1009" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1009" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D1009" s="4" t="n">
         <v>3</v>
@@ -22482,13 +22485,13 @@
     </row>
     <row r="1010" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1010" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1010" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D1010" s="4" t="n">
         <v>3</v>
@@ -22502,7 +22505,7 @@
     </row>
     <row r="1011" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1011" s="3" t="s">
         <v>5</v>
@@ -22522,13 +22525,13 @@
     </row>
     <row r="1012" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B1012" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1012" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D1012" s="4" t="n">
         <v>3</v>
@@ -22542,13 +22545,13 @@
     </row>
     <row r="1013" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1013" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1013" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D1013" s="4" t="n">
         <v>3</v>
@@ -22562,13 +22565,13 @@
     </row>
     <row r="1014" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B1014" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1014" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D1014" s="4" t="n">
         <v>4</v>
@@ -22582,13 +22585,13 @@
     </row>
     <row r="1015" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B1015" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1015" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D1015" s="4" t="n">
         <v>4</v>
@@ -22602,13 +22605,13 @@
     </row>
     <row r="1016" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1016" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1016" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D1016" s="4" t="n">
         <v>4</v>
@@ -22622,19 +22625,19 @@
     </row>
     <row r="1017" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B1017" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1017" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D1017" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E1017" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F1017" s="4" t="n">
         <v>30</v>
@@ -22642,13 +22645,13 @@
     </row>
     <row r="1018" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B1018" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1018" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D1018" s="4" t="n">
         <v>4</v>
@@ -22662,13 +22665,13 @@
     </row>
     <row r="1019" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1019" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1019" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D1019" s="4" t="n">
         <v>4</v>
@@ -22682,13 +22685,13 @@
     </row>
     <row r="1020" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1020" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1020" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D1020" s="4" t="n">
         <v>4</v>
@@ -22702,13 +22705,13 @@
     </row>
     <row r="1021" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1021" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1021" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D1021" s="4" t="n">
         <v>4</v>
@@ -22722,13 +22725,13 @@
     </row>
     <row r="1022" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B1022" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1022" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D1022" s="4" t="n">
         <v>4</v>
@@ -22742,13 +22745,13 @@
     </row>
     <row r="1023" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1023" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1023" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D1023" s="4" t="n">
         <v>4</v>
@@ -22762,13 +22765,13 @@
     </row>
     <row r="1024" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B1024" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1024" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D1024" s="4" t="n">
         <v>5</v>
@@ -22782,13 +22785,13 @@
     </row>
     <row r="1025" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B1025" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1025" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D1025" s="4" t="n">
         <v>5</v>
@@ -22802,13 +22805,13 @@
     </row>
     <row r="1026" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1026" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1026" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D1026" s="4" t="n">
         <v>5</v>
@@ -22822,19 +22825,19 @@
     </row>
     <row r="1027" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B1027" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1027" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D1027" s="4" t="n">
         <v>5</v>
       </c>
       <c r="E1027" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F1027" s="4" t="n">
         <v>30</v>
@@ -22842,13 +22845,13 @@
     </row>
     <row r="1028" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B1028" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1028" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D1028" s="4" t="n">
         <v>5</v>
@@ -22862,13 +22865,13 @@
     </row>
     <row r="1029" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1029" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1029" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D1029" s="4" t="n">
         <v>5</v>
@@ -22882,13 +22885,13 @@
     </row>
     <row r="1030" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1030" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1030" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D1030" s="4" t="n">
         <v>5</v>
@@ -22902,13 +22905,13 @@
     </row>
     <row r="1031" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1031" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1031" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D1031" s="4" t="n">
         <v>5</v>
@@ -22922,13 +22925,13 @@
     </row>
     <row r="1032" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B1032" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1032" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D1032" s="4" t="n">
         <v>5</v>
@@ -22942,13 +22945,13 @@
     </row>
     <row r="1033" customFormat="false" ht="14.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1033" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1033" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D1033" s="4" t="n">
         <v>5</v>
@@ -22995,7 +22998,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -23015,7 +23018,7 @@
     </row>
     <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>66</v>
@@ -23035,7 +23038,7 @@
     </row>
     <row r="3" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>66</v>
@@ -23055,7 +23058,7 @@
     </row>
     <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>66</v>
@@ -23075,7 +23078,7 @@
     </row>
     <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>66</v>
@@ -23095,7 +23098,7 @@
     </row>
     <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>66</v>
@@ -23115,7 +23118,7 @@
     </row>
     <row r="7" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>66</v>
@@ -23135,7 +23138,7 @@
     </row>
     <row r="8" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>66</v>
@@ -23155,7 +23158,7 @@
     </row>
     <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>66</v>
@@ -23175,7 +23178,7 @@
     </row>
     <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>66</v>
@@ -23195,7 +23198,7 @@
     </row>
     <row r="11" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>66</v>
@@ -23215,7 +23218,7 @@
     </row>
     <row r="12" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>66</v>
@@ -23235,13 +23238,13 @@
     </row>
     <row r="13" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -23255,13 +23258,13 @@
     </row>
     <row r="14" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -23275,13 +23278,13 @@
     </row>
     <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -23295,13 +23298,13 @@
     </row>
     <row r="16" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -23315,13 +23318,13 @@
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -23335,13 +23338,13 @@
     </row>
     <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -23355,13 +23358,13 @@
     </row>
     <row r="19" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -23375,13 +23378,13 @@
     </row>
     <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -23395,13 +23398,13 @@
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -23415,13 +23418,13 @@
     </row>
     <row r="22" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>3</v>
@@ -23435,13 +23438,13 @@
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -23455,13 +23458,13 @@
     </row>
     <row r="24" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -23475,13 +23478,13 @@
     </row>
     <row r="25" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -23495,13 +23498,13 @@
     </row>
     <row r="26" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -23515,13 +23518,13 @@
     </row>
     <row r="27" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
@@ -23535,13 +23538,13 @@
     </row>
     <row r="28" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
@@ -23555,13 +23558,13 @@
     </row>
     <row r="29" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
@@ -23575,13 +23578,13 @@
     </row>
     <row r="30" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -23595,13 +23598,13 @@
     </row>
     <row r="31" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -23615,13 +23618,13 @@
     </row>
     <row r="32" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
@@ -23635,13 +23638,13 @@
     </row>
     <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -23655,13 +23658,13 @@
     </row>
     <row r="34" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -23675,13 +23678,13 @@
     </row>
     <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -23695,13 +23698,13 @@
     </row>
     <row r="36" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -23715,13 +23718,13 @@
     </row>
     <row r="37" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -23735,13 +23738,13 @@
     </row>
     <row r="38" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>4</v>
@@ -23755,13 +23758,13 @@
     </row>
     <row r="39" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>4</v>
@@ -23775,13 +23778,13 @@
     </row>
     <row r="40" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>4</v>
@@ -23795,13 +23798,13 @@
     </row>
     <row r="41" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>4</v>
@@ -23815,13 +23818,13 @@
     </row>
     <row r="42" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -23835,13 +23838,13 @@
     </row>
     <row r="43" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -23855,13 +23858,13 @@
     </row>
     <row r="44" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
@@ -23875,13 +23878,13 @@
     </row>
     <row r="45" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
@@ -23895,13 +23898,13 @@
     </row>
     <row r="46" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
@@ -23915,13 +23918,13 @@
     </row>
     <row r="47" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -23935,13 +23938,13 @@
     </row>
     <row r="48" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -23955,13 +23958,13 @@
     </row>
     <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>5</v>
@@ -23975,13 +23978,13 @@
     </row>
     <row r="50" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>5</v>
@@ -23995,13 +23998,13 @@
     </row>
     <row r="51" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
